--- a/R/Extra_analysis_results/Location_description.xlsx
+++ b/R/Extra_analysis_results/Location_description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/R/Extra_analysis_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7553C-5828-264A-9CA7-3AAE7F549EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC6F40-1E52-9D46-A592-0073698D2C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{3AFA1387-E540-684D-951C-EA54DDD746BE}"/>
+    <workbookView xWindow="10360" yWindow="1700" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{3AFA1387-E540-684D-951C-EA54DDD746BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,25 +1019,25 @@
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>6</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <v>7</v>
       </c>
     </row>

--- a/R/Extra_analysis_results/Location_description.xlsx
+++ b/R/Extra_analysis_results/Location_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/R/Extra_analysis_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC6F40-1E52-9D46-A592-0073698D2C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5096A7B9-15E7-1440-836D-8679425FCAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="1700" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{3AFA1387-E540-684D-951C-EA54DDD746BE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Co_occurrence between layers" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Plant richness</t>
   </si>
@@ -101,6 +102,15 @@
   </si>
   <si>
     <t>Links</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -869,10 +879,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87375B6-C928-7D45-A836-F2A79B485AE2}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD90D26-76D5-6B48-8768-626AE7B602A9}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
